--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2302818.85815517</v>
+        <v>2304579.388457955</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>315.3882082434897</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.9870153438524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.7244765928111</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>108.8314371278621</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="F5" t="n">
-        <v>353.9182127861545</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>165.778048574447</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991771</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6073936510872</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>261.8409498966701</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444108</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.5488180434333</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.33251894259088</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428291</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>236.9211256744973</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703279</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.445727774094267</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428494</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>285.5970594671161</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605717069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413588</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>34.00490843294684</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1550.724918249255</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267231</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267231</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2866.097597267231</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986313</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1817.363803514895</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.50719300825</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732717</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297416</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2291.674678112796</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1922.712161172385</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D5" t="n">
-        <v>1564.446462565634</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E5" t="n">
-        <v>1178.65820996739</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176918</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2678.274518176918</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,22 +4670,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1759.84197377087</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1538.075358340396</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1248.97249146604</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535338</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1904.487375535338</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.221676928587</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.433424330343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>749.4475195407356</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>334.375069385732</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1662.808740112058</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1408.124251906171</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168584</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362656</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,37 +5105,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.2476448606615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>785.3114619327547</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>635.1948225204191</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>487.281728938026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>340.3917814401158</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.896109690901</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803934</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516138</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138419</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859351</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3584617859351</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4453682035421</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>452.5554207056318</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>285.3593214205119</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>143.6474902627101</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138419</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138419</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075851</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793923</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400722</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121655</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121655</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270455</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138419</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793923</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,64 +5886,64 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400722</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121655</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121655</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121655</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121655</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
         <v>1433.70136564882</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138419</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400743</v>
+        <v>954.2476448606607</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121675</v>
+        <v>785.3114619327538</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121675</v>
+        <v>635.194822520418</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121675</v>
+        <v>487.2817289380249</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121675</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138439</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703139</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="26">
@@ -6220,43 +6220,43 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,7 +6299,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273906</v>
@@ -6308,7 +6308,7 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,13 +6402,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,13 +6639,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>142.9753202488354</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>31.9333173759746</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194086</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856546</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>49.60187266209365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194088</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>142.975320248837</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219388</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5874149221280618</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675048</v>
       </c>
     </row>
     <row r="3">
@@ -26368,28 +26368,28 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8462122726487e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.8641468306</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468306</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913081.2578089554</v>
+        <v>-913081.2578089552</v>
       </c>
       <c r="C6" t="n">
         <v>415663.4879186372</v>
       </c>
       <c r="D6" t="n">
-        <v>415663.4879186376</v>
+        <v>415663.4879186377</v>
       </c>
       <c r="E6" t="n">
-        <v>165480.7147350548</v>
+        <v>165793.3560639755</v>
       </c>
       <c r="F6" t="n">
-        <v>490893.17654241</v>
+        <v>491205.8178713308</v>
       </c>
       <c r="G6" t="n">
-        <v>490893.1765424095</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="H6" t="n">
-        <v>490893.1765424097</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="I6" t="n">
-        <v>490893.1765424089</v>
+        <v>491205.8178713312</v>
       </c>
       <c r="J6" t="n">
-        <v>273361.9741451322</v>
+        <v>273674.6154740534</v>
       </c>
       <c r="K6" t="n">
-        <v>490893.1765424099</v>
+        <v>491205.817871331</v>
       </c>
       <c r="L6" t="n">
-        <v>490893.1765424103</v>
+        <v>491205.817871331</v>
       </c>
       <c r="M6" t="n">
-        <v>405838.148606898</v>
+        <v>406150.7899358191</v>
       </c>
       <c r="N6" t="n">
-        <v>490893.1765424096</v>
+        <v>491205.8178713315</v>
       </c>
       <c r="O6" t="n">
-        <v>490893.1765424098</v>
+        <v>491205.8178713315</v>
       </c>
       <c r="P6" t="n">
-        <v>490893.1765424094</v>
+        <v>491205.8178713316</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26749,13 +26749,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>66.54216182877212</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.2509233122012</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.10750358912615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>177.3804010777508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>306.4732379112243</v>
       </c>
       <c r="F5" t="n">
-        <v>52.95783295555691</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>23.99097675699494</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356952</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>71.00037073623329</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>24.37088830894277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113966</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181847</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817624</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558032</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366926</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558032</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162543</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280633</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,13 +35576,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>101.8925903961664</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367818</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113588</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924765</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113588</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146267</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
